--- a/画面項目定義/admin2画面項目定義.xlsx
+++ b/画面項目定義/admin2画面項目定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D4BF051-3692-4039-84AD-6BB6AD72AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3806599-CA7E-4D5A-8F19-FAF5E668BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="14123" xr2:uid="{0E946990-DD17-4370-9B46-461C94C5BA8E}"/>
+    <workbookView xWindow="7035" yWindow="2070" windowWidth="13582" windowHeight="12600" xr2:uid="{0E946990-DD17-4370-9B46-461C94C5BA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,22 +86,6 @@
     <t>URLが正しいかチェック</t>
   </si>
   <si>
-    <r>
-      <t>admin.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
-  </si>
-  <si>
     <t>検索バー</t>
   </si>
   <si>
@@ -133,22 +117,6 @@
   </si>
   <si>
     <t>「ホテルを追加」</t>
-  </si>
-  <si>
-    <r>
-      <t>add_hotel.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に遷移</t>
-    </r>
   </si>
   <si>
     <t>ホテルリスト見出し</t>
@@ -201,6 +169,36 @@
       </rPr>
       <t>）に遷移</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>管理者メイン画面に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遷移</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホテル追加画面に遷移</t>
+    <rPh sb="3" eb="7">
+      <t>ツイカガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -261,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +270,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7671019-7C14-482F-B78E-733E45A7A164}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -621,7 +622,7 @@
     <col min="6" max="6" width="38.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52.9">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -661,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="52.9">
+    <row r="3" spans="1:6" ht="35.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -678,32 +679,32 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="35.25">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="70.5">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="5" spans="1:6" ht="35.25">
+      <c r="A5" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="88.15">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -712,18 +713,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="35.25">
+      <c r="A6" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="52.9">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -732,18 +733,18 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="52.9">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -752,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -761,29 +762,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="70.5">
+    <row r="8" spans="1:6" ht="35.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="35.25">
+      <c r="A9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="105.75">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -792,13 +793,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
